--- a/TestScheduler/bin/Debug/Results/Template.xlsx
+++ b/TestScheduler/bin/Debug/Results/Template.xlsx
@@ -490,7 +490,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
